--- a/src/test/resources/TEST_DATA/testdata.xlsx
+++ b/src/test/resources/TEST_DATA/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F91FA-8AC0-4EA6-BAAB-37FDF561878F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F3449-25B1-45AB-A660-D36B8B374465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>uffoocheptha</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>huhaa@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>andhra</t>
   </si>
@@ -57,7 +48,19 @@
     <t>divya</t>
   </si>
   <si>
-    <t>divyapapa1</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ChopparaDivya</t>
+  </si>
+  <si>
+    <t>Jpetapplication</t>
+  </si>
+  <si>
+    <t>choppara</t>
+  </si>
+  <si>
+    <t>jpet@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -386,16 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
@@ -406,49 +408,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
